--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pr0\POV-You-Moved-to-Texas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{305BB56D-667F-4061-829A-B41A63C09ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2C21AE38-1D6D-4EFD-976B-8DD724B6497D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432"/>
   </bookViews>
